--- a/backend/Expiry_Brand_Details3.xlsx
+++ b/backend/Expiry_Brand_Details3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sno</t>
   </si>
@@ -34,10 +34,7 @@
     <t>Life Span</t>
   </si>
   <si>
-    <t>2024-12-09 19:38:42</t>
-  </si>
-  <si>
-    <t>2024-12-09 19:38:57</t>
+    <t>2024-12-10 10:02:41</t>
   </si>
   <si>
     <t>YARDLEY_SOAP</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,33 +438,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
